--- a/New_File-1.xlsx
+++ b/New_File-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aekul\Desktop\repo-IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B064068D-EFCA-42DF-8E9B-7F16EB6E5655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62091314-6558-41B1-8D61-C998E9FDE78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,60 +337,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>

--- a/New_File-1.xlsx
+++ b/New_File-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aekul\Desktop\repo-IoT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62091314-6558-41B1-8D61-C998E9FDE78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB5359-C994-47E7-92A0-21A36D0EA4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,83 +337,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
